--- a/data/NRCan/Principal Mineral Areas, Producing Mines, and Oil and Gas Fields (900A)/producing_mines.xlsx
+++ b/data/NRCan/Principal Mineral Areas, Producing Mines, and Oil and Gas Fields (900A)/producing_mines.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="31" documentId="11_42492E23ACC0B63B03E6046A5434A0C55B6B0169" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A90DA17-B36E-46A9-9980-16D54FF69B46}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="900a_73rd_producingmines" sheetId="1" r:id="rId1"/>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
